--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="11472" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="11475" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -232,12 +232,18 @@
   <si>
     <t>JV</t>
   </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Test Classes missing for StoreKeeper, Discount and Member/Customer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -446,6 +453,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,24 +629,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="28.8">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -681,7 +689,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="84.75" customHeight="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -701,7 +709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -718,7 +726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="28.8">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -738,7 +746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -758,7 +766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="43.2">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -778,7 +786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -795,7 +803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="43.2">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -813,7 +821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -830,7 +838,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -848,7 +856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -865,7 +873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="57.6">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -883,7 +891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -900,7 +908,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -918,7 +926,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -935,7 +943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="28.8">
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -953,7 +961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -970,7 +978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="28.8">
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -988,7 +996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.8">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="28.8">
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.8">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="28.8">
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="28.8">
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1094,6 +1102,20 @@
         <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1104,24 +1126,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="11475" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="11472" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -238,12 +238,30 @@
   <si>
     <t>Test Classes missing for StoreKeeper, Discount and Member/Customer</t>
   </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Add first transaction without selecting the product (click '+' button)</t>
+  </si>
+  <si>
+    <t>Click '+' button showing the confirm dialog box "Do you want to delete the item from the list?" and clicks cancel throws exception</t>
+  </si>
+  <si>
+    <t>Sabethan</t>
+  </si>
+  <si>
+    <t>Fixed Remark</t>
+  </si>
+  <si>
+    <t>Test class added for storekeeper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -329,6 +347,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +439,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -453,7 +473,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,24 +648,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="52.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,8 +692,11 @@
       <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -689,7 +713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -709,7 +733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -726,7 +750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -746,7 +770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -766,7 +790,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="43.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -786,7 +810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -803,7 +827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="43.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -821,7 +845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -838,7 +862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -856,7 +880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -873,7 +897,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="57.6">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -891,7 +915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -908,7 +932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -926,7 +950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -943,7 +967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -961,7 +985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -978,7 +1002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -996,7 +1020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1010,7 +1034,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1028,7 +1052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="28.8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1045,7 +1069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1061,7 +1085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1075,7 +1099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1091,7 +1115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="43.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1117,6 +1141,29 @@
       </c>
       <c r="F27" s="6" t="s">
         <v>59</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="43.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1126,24 +1173,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjing\git\pos8\SouvenirStore\internal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="11472" windowHeight="4620"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="11475" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -256,12 +261,88 @@
   <si>
     <t>Test class added for storekeeper</t>
   </si>
+  <si>
+    <t>categoty code should be 3-letter code. Validation should be added when add new category</t>
+  </si>
+  <si>
+    <t>Jing</t>
+  </si>
+  <si>
+    <t>Vendor name should be unique</t>
+  </si>
+  <si>
+    <t>When add new vendor, duplicate vendor names can be added for one category. 
+When save to dat file,  the duplicate vendor has not been saved.</t>
+  </si>
+  <si>
+    <t>Add Product dialog should  popup in the center position of the app</t>
+  </si>
+  <si>
+    <t>JIng</t>
+  </si>
+  <si>
+    <t>Product ID is not continuous</t>
+  </si>
+  <si>
+    <t>If user clicks "Cancel",  the id will be discarded and not be used again when user added another product.</t>
+  </si>
+  <si>
+    <t>spelling - can change "StartDate" to "Start Date"</t>
+  </si>
+  <si>
+    <t>It should popup error msg if the user adds duplicate Category Code</t>
+  </si>
+  <si>
+    <t>Member ID should be unique</t>
+  </si>
+  <si>
+    <t>password should be shown as "*********"</t>
+  </si>
+  <si>
+    <t>StoreKeeper name should be unique</t>
+  </si>
+  <si>
+    <t>currently we can add duplucate storekeeper</t>
+  </si>
+  <si>
+    <t>storeKeeper name should be readonly when edit</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>When I click "+", it popup the msg "Do u want to delete the item from the list?"</t>
+  </si>
+  <si>
+    <t>1. click "+" when product id is blank
+2. choose one product,  click "+" again</t>
+  </si>
+  <si>
+    <t>refer to screenshot "billing1"</t>
+  </si>
+  <si>
+    <t>Add some products, then click "Close", then click "billing" menu item to open the billing window again,  the price column value is changed</t>
+  </si>
+  <si>
+    <t>refer to screenshot "billing2"</t>
+  </si>
+  <si>
+    <t>choose the wrong discount</t>
+  </si>
+  <si>
+    <t>1. buy one product for member "test"
+2. confirm
+3. discount is 20%. Its correct
+4. buy again for member "test"
+5. 20% discount is applied again. Its wrong
+20% is for member first purchase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +441,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -407,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,9 +523,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,6 +558,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,26 +734,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="28.8">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -713,7 +799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -733,7 +819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -750,7 +836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -770,7 +856,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -790,7 +876,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="43.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -810,7 +896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -827,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="43.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -845,7 +931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -862,7 +948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -880,7 +966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -897,7 +983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="57.6">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -915,7 +1001,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -932,7 +1018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -950,7 +1036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -967,7 +1053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -985,7 +1071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1002,7 +1088,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1020,7 +1106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="28.8">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1034,7 +1120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1052,7 +1138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1069,7 +1155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1085,7 +1171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1099,7 +1185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1115,7 +1201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1129,7 +1215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="43.2">
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1149,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="43.2">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1164,6 +1250,218 @@
       </c>
       <c r="F28" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1173,24 +1471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjing\git\pos8\SouvenirStore\internal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="180" windowWidth="11475" windowHeight="4620"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -336,6 +331,21 @@
 4. buy again for member "test"
 5. 20% discount is applied again. Its wrong
 20% is for member first purchase</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>The table.editingRow was getting reset to -1 due to events trigger. This is fixed now</t>
+  </si>
+  <si>
+    <t>Won't Fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a feature to reload the Shopping Cart from the session. To notify the user, a small text (*Shopping Cart restored from session) would appear at the top of the panel for 5 seconds </t>
+  </si>
+  <si>
+    <t>This MemberDiscount is extended to compute the appropriate discount value</t>
   </si>
 </sst>
 </file>
@@ -413,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -428,8 +438,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,19 +750,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="46" style="8" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -778,7 +792,7 @@
       <c r="H1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -818,6 +832,7 @@
       <c r="F3" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -855,6 +870,7 @@
       <c r="F5" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -895,6 +911,7 @@
       <c r="F7" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -930,6 +947,7 @@
       <c r="F9" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -965,6 +983,7 @@
       <c r="F11" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1000,6 +1019,7 @@
       <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1035,6 +1055,7 @@
       <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1070,6 +1091,7 @@
       <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1105,6 +1127,7 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1137,6 +1160,7 @@
       <c r="F21" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1170,6 +1194,7 @@
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1200,6 +1225,7 @@
       <c r="F25" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1251,8 +1277,17 @@
       <c r="F28" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1265,11 +1300,11 @@
       <c r="F29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1285,11 +1320,11 @@
       <c r="F30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1302,11 +1337,11 @@
       <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1322,7 +1357,7 @@
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1336,11 +1371,11 @@
       <c r="F33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,7 +1385,7 @@
       <c r="F34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1364,7 +1399,7 @@
       <c r="F35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1378,11 +1413,11 @@
       <c r="F36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="F37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1410,7 +1445,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
@@ -1426,11 +1461,17 @@
       <c r="F39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
@@ -1443,8 +1484,11 @@
       <c r="F40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I40" s="1">
-        <v>2</v>
+      <c r="G40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,8 +1504,11 @@
       <c r="F41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="1">
-        <v>2</v>
+      <c r="G41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\NUS\src\SouvenirStore\internal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="180" windowWidth="11475" windowHeight="4620"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -346,6 +351,44 @@
   </si>
   <si>
     <t>This MemberDiscount is extended to compute the appropriate discount value</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>Fixed the exception by adding null check before trying to loop through vendors.
+I tried to display the arrow but it requires a custom draw method. Given the time constraint, I think it's not a priority.</t>
+  </si>
+  <si>
+    <t>Not Fixed</t>
+  </si>
+  <si>
+    <t>I removed this when I implemented Jtable UI. Although I have it on my mind to add it back, I think this is low priority since this functionality does not serve any real purpose.</t>
+  </si>
+  <si>
+    <t>Disabled multi select</t>
+  </si>
+  <si>
+    <t>In AddProduct dialog, the Product Id displayer will be &lt;CATEGORY CODE&gt;/ without any sequence number.
+After clicking add button, a new sequence number is generated. Thus avoiding creation of throwaway sequence numbers.</t>
+  </si>
+  <si>
+    <t>If the product is not available, the quantity can be made 0</t>
+  </si>
+  <si>
+    <t>Renamed column titles and removed category column</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>I conside this low priority. Currently all dialogs are set to display on center of screen.</t>
+  </si>
+  <si>
+    <t>This is fixed in issue 5 above.</t>
   </si>
 </sst>
 </file>
@@ -504,7 +547,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +582,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +855,12 @@
       <c r="F2" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -832,9 +881,17 @@
       <c r="F3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -849,6 +906,15 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -870,9 +936,17 @@
       <c r="F5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -890,6 +964,15 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -911,9 +994,15 @@
       <c r="F7" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -928,6 +1017,15 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -947,7 +1045,15 @@
       <c r="F9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="G9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1287,7 +1393,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1299,6 +1405,12 @@
       </c>
       <c r="F29" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I29" s="8">
         <v>3</v>
@@ -1320,6 +1432,12 @@
       <c r="F30" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I30" s="8">
         <v>5</v>
       </c>
@@ -1337,8 +1455,11 @@
       <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="8">
-        <v>5</v>
+      <c r="H31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1357,8 +1478,14 @@
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="8">
-        <v>4</v>
+      <c r="G32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1384,6 +1511,12 @@
       </c>
       <c r="F34" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I34" s="8">
         <v>3</v>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>This is fixed in issue 5 above.</t>
+  </si>
+  <si>
+    <t>Added code length check in AddCategory dialog. If code length is less or more than three characters, an exception is thrown. Added logic to handle the exception.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1407,13 +1410,13 @@
         <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="8">
-        <v>3</v>
+      <c r="I29" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\NUS\src\SouvenirStore\internal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUS\Source\SouvenirStore\internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -392,6 +392,31 @@
   </si>
   <si>
     <t>Added code length check in AddCategory dialog. If code length is less or more than three characters, an exception is thrown. Added logic to handle the exception.</t>
+  </si>
+  <si>
+    <t>Transaction UI</t>
+  </si>
+  <si>
+    <t>Resizing main window does not resize Transaction panels accordingly.</t>
+  </si>
+  <si>
+    <t>Clicking View button, resets size of main window.</t>
+  </si>
+  <si>
+    <t>Case 1:
+Select Reports-&gt;Transactions
+Maximize main app window
+Observe that Transaction panel does not resizeaccordingly
+Case 2:
+Instead of maximizing the window, reduce the size.
+Observe that the UI is clipped.</t>
+  </si>
+  <si>
+    <t>Maximize main app window
+Select Reports-&gt;Transactions
+Click search
+Select transaction from list and click View button
+Observe that the main window size is reset</t>
   </si>
 </sst>
 </file>
@@ -794,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1516,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1505,7 +1533,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1556,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1539,7 +1573,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1553,7 +1590,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1570,7 +1610,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1581,7 +1624,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
@@ -1607,7 +1653,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
@@ -1627,7 +1676,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
@@ -1645,6 +1697,90 @@
       </c>
       <c r="I41" s="8" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -3,25 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUS\Source\SouvenirStore\internal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="11475" windowHeight="4620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15312" windowHeight="3984"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
   <si>
     <t>#</t>
   </si>
@@ -417,6 +413,27 @@
 Click search
 Select transaction from list and click View button
 Observe that the main window size is reset</t>
+  </si>
+  <si>
+    <t>Rushabh</t>
+  </si>
+  <si>
+    <t>Hitting tab button will move cursor from start date to end date.</t>
+  </si>
+  <si>
+    <t>We have already shown the wrongly entered date by the user. I think it is a low priority issue as it will not affect functionality</t>
+  </si>
+  <si>
+    <t>Additional Clear button functionality included</t>
+  </si>
+  <si>
+    <t>View button is disabled unless user selects a particular record from the list.</t>
+  </si>
+  <si>
+    <t>Borderlayout added for auto-resizing of components.</t>
+  </si>
+  <si>
+    <t>Issue fixed as per point 24</t>
   </si>
 </sst>
 </file>
@@ -821,24 +838,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="46" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -890,7 +907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -919,7 +936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -945,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -974,7 +991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1020,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1030,7 +1047,7 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1083,7 +1100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1100,7 +1117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1119,7 +1136,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1136,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1155,7 +1172,7 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1172,7 +1189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1191,7 +1208,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1208,7 +1225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1227,7 +1244,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1244,7 +1261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1263,7 +1280,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1296,7 +1313,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1312,8 +1329,17 @@
       <c r="F22" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1328,9 +1354,14 @@
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1343,8 +1374,17 @@
       <c r="F24" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1359,9 +1399,17 @@
       <c r="F25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1374,8 +1422,17 @@
       <c r="F26" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1395,7 +1452,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1421,7 +1478,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1444,7 +1501,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1470,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1490,7 +1547,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1516,7 +1573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1533,7 +1590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1556,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1573,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1590,7 +1647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1610,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1624,7 +1681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1653,7 +1710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1676,7 +1733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1699,7 +1756,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1715,8 +1772,17 @@
       <c r="F42" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1732,53 +1798,56 @@
       <c r="F43" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1795,7 +1864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1807,7 +1876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15312" windowHeight="3984"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11688" windowHeight="3984"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Issue fixed as per point 24</t>
+  </si>
+  <si>
+    <t>Resetting size of the transaction detail window done according to the main window.</t>
   </si>
 </sst>
 </file>
@@ -838,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,7 +1802,13 @@
         <v>97</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11688" windowHeight="3984"/>
@@ -11,13 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="122">
   <si>
     <t>#</t>
   </si>
@@ -442,8 +441,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,10 +626,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,7 +660,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,14 +835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -858,7 +855,7 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,7 +884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -910,7 +907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -939,7 +936,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="57.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -965,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -994,7 +991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="72">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="57.6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1050,7 +1047,7 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="43.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1120,7 +1117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1139,7 +1136,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="57.6">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1175,7 +1172,7 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1192,7 +1189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="3" customFormat="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1211,7 +1208,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1247,7 +1244,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1281,9 +1278,15 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="G19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="28.8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="43.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1316,7 +1319,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="28.8">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="43.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="28.8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="43.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="57.6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="57.6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="28.8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="43.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="28.8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1646,11 +1649,17 @@
       <c r="F36" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I36" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1666,11 +1675,17 @@
       <c r="F37" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I37" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1683,8 +1698,14 @@
       <c r="F38" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1713,7 +1734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="57.6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1736,7 +1757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="94.5" customHeight="1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1759,7 +1780,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="129.6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1785,7 +1806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="72">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1811,52 +1832,52 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1868,24 +1889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUS\Source\SouvenirStore\internal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11688" windowHeight="3984"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="3990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -437,12 +442,15 @@
   <si>
     <t>Resetting size of the transaction detail window done according to the main window.</t>
   </si>
+  <si>
+    <t>Updated logic to check whether the vendor already exists.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,9 +634,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,6 +669,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,27 +845,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="38" style="5" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="7" max="8" width="8.85546875" style="1"/>
     <col min="9" max="9" width="46" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="28.8">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1">
+    <row r="2" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -907,7 +917,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -936,7 +946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -962,7 +972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="57.6">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1047,7 +1057,7 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="28.8">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="43.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1136,7 +1146,7 @@
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" ht="28.8">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="57.6">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1172,7 +1182,7 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="28.8">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1189,7 +1199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1208,7 +1218,7 @@
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1244,7 +1254,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1286,7 +1296,7 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="28.8">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1300,7 +1310,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="43.2">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1319,7 +1329,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="28.8">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="43.2">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="28.8">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" ht="28.8">
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="43.2">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="57.6">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6">
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1524,16 +1534,16 @@
         <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8">
+      <c r="I30" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="43.2">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1579,7 +1589,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1596,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1636,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1705,7 +1715,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.8">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1734,7 +1744,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="57.6">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1757,7 +1767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="94.5" customHeight="1">
+    <row r="41" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="129.6">
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1806,7 +1816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="72">
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1832,52 +1842,52 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1889,24 +1899,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SouvenirStore/internal/Issues.xlsx
+++ b/SouvenirStore/internal/Issues.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="123">
   <si>
     <t>#</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Renamed column titles and removed category column</t>
   </si>
   <si>
-    <t>WIP</t>
-  </si>
-  <si>
     <t>I conside this low priority. Currently all dialogs are set to display on center of screen.</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>Updated logic to check whether the vendor already exists.</t>
+  </si>
+  <si>
+    <t>Added duplicate check for category</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,10 +1349,10 @@
         <v>96</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>99</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>96</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1419,10 +1419,10 @@
         <v>96</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1442,10 +1442,10 @@
         <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>97</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>97</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>97</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>97</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1620,13 +1620,13 @@
         <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I34" s="8">
-        <v>3</v>
+      <c r="I34" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1795,13 +1795,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>97</v>
@@ -1810,10 +1810,10 @@
         <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>97</v>
@@ -1836,10 +1836,10 @@
         <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
